--- a/stationList(작업용).xlsx
+++ b/stationList(작업용).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\α\CODE\GitHub\koreanRandomStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD5D364-3D91-49B0-A823-A8D73206D377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B960B55-EA63-4641-8BFC-D4AF788D8FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="465" windowWidth="13110" windowHeight="14025" xr2:uid="{2C0BF7FF-69E2-4B16-B3FC-C7B0800F99FB}"/>
+    <workbookView xWindow="14640" yWindow="750" windowWidth="13110" windowHeight="14025" xr2:uid="{2C0BF7FF-69E2-4B16-B3FC-C7B0800F99FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="941">
   <si>
     <t>소요산</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3497,6 +3497,10 @@
   </si>
   <si>
     <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3863,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6ADC5-78E3-440A-A856-CADC16BB3B3D}">
   <dimension ref="A1:C724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
-      <selection activeCell="H723" sqref="H723"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4757,7 +4761,7 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -5120,7 +5124,7 @@
         <v>216</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
